--- a/Analisi dei dati/Ferrara/Datasets/Post Processing/RQ2.xlsx
+++ b/Analisi dei dati/Ferrara/Datasets/Post Processing/RQ2.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tesi Magistrale\TesiFairness\Analisi dei dati\Ferrara\Datasets\Post Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B8817-A7BE-4A73-A85B-8CCD2C573E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5405CD78-C547-4B92-B83C-E25E2EE653C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="2" r:id="rId1"/>
     <sheet name="Role_Impact" sheetId="6" r:id="rId2"/>
+    <sheet name="Frequences" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="119">
   <si>
     <t>31 - 50</t>
   </si>
@@ -358,21 +368,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Average impact</t>
-  </si>
-  <si>
-    <t>Very high impact</t>
-  </si>
-  <si>
-    <t>Below average impact</t>
-  </si>
-  <si>
-    <t>Above average impact</t>
-  </si>
-  <si>
-    <t>Very low impact</t>
-  </si>
-  <si>
     <t>Among the following roles, who has an impact on the choices about software fairness?</t>
   </si>
   <si>
@@ -383,6 +378,21 @@
   </si>
   <si>
     <t>Qualitative Scale</t>
+  </si>
+  <si>
+    <t>1 - Very low impact</t>
+  </si>
+  <si>
+    <t>2- Below average impact</t>
+  </si>
+  <si>
+    <t>3 - Average impact</t>
+  </si>
+  <si>
+    <t>4 - Above average impact</t>
+  </si>
+  <si>
+    <t>5 - Very high impact</t>
   </si>
 </sst>
 </file>
@@ -773,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3510B5-93BC-4215-83D0-632A3447D237}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -3836,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30E29E5-D98C-48A6-A7F7-A59972025842}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3869,13 +3879,13 @@
         <v>101</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>109</v>
@@ -3910,7 +3920,7 @@
         <v>114</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3939,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3968,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3997,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4026,7 +4036,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6923,4 +6933,164 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE48E3-627B-4C2E-84E9-4DD55842B469}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>